--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H2">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I2">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J2">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N2">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O2">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P2">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q2">
-        <v>660.4755671909061</v>
+        <v>555.1906249836666</v>
       </c>
       <c r="R2">
-        <v>5944.280104718156</v>
+        <v>4996.715624852999</v>
       </c>
       <c r="S2">
-        <v>0.003569550163587486</v>
+        <v>0.001512074553049929</v>
       </c>
       <c r="T2">
-        <v>0.003569550163587487</v>
+        <v>0.001512074553049929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H3">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I3">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J3">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.359219</v>
       </c>
       <c r="O3">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P3">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q3">
-        <v>387.3473831745317</v>
+        <v>339.74943722155</v>
       </c>
       <c r="R3">
-        <v>3486.126448570785</v>
+        <v>3057.74493499395</v>
       </c>
       <c r="S3">
-        <v>0.002093424773994988</v>
+        <v>0.0009253154778160267</v>
       </c>
       <c r="T3">
-        <v>0.002093424773994988</v>
+        <v>0.0009253154778160267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H4">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I4">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J4">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N4">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O4">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P4">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q4">
-        <v>158.4515058301</v>
+        <v>272.9587222549333</v>
       </c>
       <c r="R4">
-        <v>1426.0635524709</v>
+        <v>2456.6285002944</v>
       </c>
       <c r="S4">
-        <v>0.0008563535528832572</v>
+        <v>0.0007434094154000713</v>
       </c>
       <c r="T4">
-        <v>0.0008563535528832575</v>
+        <v>0.0007434094154000713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H5">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I5">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J5">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N5">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O5">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P5">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q5">
-        <v>111.7432021524006</v>
+        <v>146.7314148762167</v>
       </c>
       <c r="R5">
-        <v>1005.688819371605</v>
+        <v>1320.58273388595</v>
       </c>
       <c r="S5">
-        <v>0.0006039178212440965</v>
+        <v>0.0003996264140336775</v>
       </c>
       <c r="T5">
-        <v>0.0006039178212440966</v>
+        <v>0.0003996264140336776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H6">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I6">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J6">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N6">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O6">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P6">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q6">
-        <v>241.9976236403256</v>
+        <v>270.9307381266834</v>
       </c>
       <c r="R6">
-        <v>2177.97861276293</v>
+        <v>2438.37664314015</v>
       </c>
       <c r="S6">
-        <v>0.001307879806556757</v>
+        <v>0.0007378861535575175</v>
       </c>
       <c r="T6">
-        <v>0.001307879806556757</v>
+        <v>0.0007378861535575175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N7">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O7">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P7">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q7">
-        <v>907.2160993699554</v>
+        <v>869.4367560188243</v>
       </c>
       <c r="R7">
-        <v>8164.944894329599</v>
+        <v>7824.930804169419</v>
       </c>
       <c r="S7">
-        <v>0.004903063090870098</v>
+        <v>0.00236793118453868</v>
       </c>
       <c r="T7">
-        <v>0.004903063090870099</v>
+        <v>0.00236793118453868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>31.359219</v>
       </c>
       <c r="O8">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P8">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q8">
         <v>532.0526595091836</v>
@@ -948,10 +948,10 @@
         <v>4788.473935582653</v>
       </c>
       <c r="S8">
-        <v>0.002875486622261707</v>
+        <v>0.001449057767050808</v>
       </c>
       <c r="T8">
-        <v>0.002875486622261707</v>
+        <v>0.001449057767050808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N9">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O9">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P9">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q9">
-        <v>217.64583612058</v>
+        <v>427.4574089059128</v>
       </c>
       <c r="R9">
-        <v>1958.81252508522</v>
+        <v>3847.116680153215</v>
       </c>
       <c r="S9">
-        <v>0.001176270203654323</v>
+        <v>0.001164190174389749</v>
       </c>
       <c r="T9">
-        <v>0.001176270203654323</v>
+        <v>0.001164190174389749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N10">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O10">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P10">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q10">
-        <v>153.4882394196232</v>
+        <v>229.7835727319481</v>
       </c>
       <c r="R10">
-        <v>1381.394154776609</v>
+        <v>2068.052154587533</v>
       </c>
       <c r="S10">
-        <v>0.0008295295047162721</v>
+        <v>0.0006258208935842494</v>
       </c>
       <c r="T10">
-        <v>0.0008295295047162721</v>
+        <v>0.0006258208935842495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N11">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O11">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P11">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q11">
-        <v>332.4031214500882</v>
+        <v>424.2815556721246</v>
       </c>
       <c r="R11">
-        <v>2991.628093050794</v>
+        <v>3818.534001049121</v>
       </c>
       <c r="S11">
-        <v>0.001796477682884816</v>
+        <v>0.001155540664396359</v>
       </c>
       <c r="T11">
-        <v>0.001796477682884815</v>
+        <v>0.001155540664396359</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H12">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I12">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J12">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N12">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O12">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P12">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q12">
-        <v>35780.30577545665</v>
+        <v>55931.53907972929</v>
       </c>
       <c r="R12">
-        <v>322022.7519791099</v>
+        <v>503383.8517175636</v>
       </c>
       <c r="S12">
-        <v>0.1933752021701585</v>
+        <v>0.1523308448478653</v>
       </c>
       <c r="T12">
-        <v>0.1933752021701585</v>
+        <v>0.1523308448478652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H13">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I13">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J13">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.359219</v>
       </c>
       <c r="O13">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P13">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q13">
-        <v>20983.9826024961</v>
+        <v>34227.3591630482</v>
       </c>
       <c r="R13">
-        <v>188855.8434224649</v>
+        <v>308046.2324674337</v>
       </c>
       <c r="S13">
-        <v>0.1134082504369258</v>
+        <v>0.09321900709340698</v>
       </c>
       <c r="T13">
-        <v>0.1134082504369258</v>
+        <v>0.09321900709340697</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H14">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I14">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J14">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N14">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O14">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P14">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q14">
-        <v>8583.880480689781</v>
+        <v>27498.6657806117</v>
       </c>
       <c r="R14">
-        <v>77254.92432620803</v>
+        <v>247487.9920255053</v>
       </c>
       <c r="S14">
-        <v>0.04639171151232786</v>
+        <v>0.07489325449418577</v>
       </c>
       <c r="T14">
-        <v>0.04639171151232787</v>
+        <v>0.07489325449418575</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H15">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I15">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J15">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N15">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O15">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P15">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q15">
-        <v>6053.525883397141</v>
+        <v>14782.15498616268</v>
       </c>
       <c r="R15">
-        <v>54481.73295057427</v>
+        <v>133039.3948754641</v>
       </c>
       <c r="S15">
-        <v>0.03271637193070549</v>
+        <v>0.04025954219683426</v>
       </c>
       <c r="T15">
-        <v>0.03271637193070549</v>
+        <v>0.04025954219683426</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H16">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I16">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J16">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N16">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O16">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P16">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q16">
-        <v>13109.87022216671</v>
+        <v>27294.36068535614</v>
       </c>
       <c r="R16">
-        <v>117988.8319995004</v>
+        <v>245649.2461682052</v>
       </c>
       <c r="S16">
-        <v>0.070852491327086</v>
+        <v>0.07433682482536082</v>
       </c>
       <c r="T16">
-        <v>0.07085249132708599</v>
+        <v>0.0743368248253608</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H17">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N17">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O17">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P17">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q17">
-        <v>114.9385725946385</v>
+        <v>124.3338481139911</v>
       </c>
       <c r="R17">
-        <v>1034.447153351747</v>
+        <v>1119.00463302592</v>
       </c>
       <c r="S17">
-        <v>0.0006211872489889028</v>
+        <v>0.0003386261211119545</v>
       </c>
       <c r="T17">
-        <v>0.0006211872489889028</v>
+        <v>0.0003386261211119545</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H18">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>31.359219</v>
       </c>
       <c r="O18">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P18">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q18">
-        <v>67.40772487573433</v>
+        <v>76.08621800045866</v>
       </c>
       <c r="R18">
-        <v>606.6695238816089</v>
+        <v>684.7759620041279</v>
       </c>
       <c r="S18">
-        <v>0.0003643060656741742</v>
+        <v>0.0002072225806761193</v>
       </c>
       <c r="T18">
-        <v>0.0003643060656741742</v>
+        <v>0.0002072225806761193</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H19">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N19">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O19">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P19">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q19">
-        <v>27.57435825074</v>
+        <v>61.12856879604621</v>
       </c>
       <c r="R19">
-        <v>248.16922425666</v>
+        <v>550.1571191644159</v>
       </c>
       <c r="S19">
-        <v>0.0001490260350180356</v>
+        <v>0.0001664850759026823</v>
       </c>
       <c r="T19">
-        <v>0.0001490260350180356</v>
+        <v>0.0001664850759026823</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H20">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N20">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O20">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P20">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q20">
-        <v>19.44599435703078</v>
+        <v>32.86021166388977</v>
       </c>
       <c r="R20">
-        <v>175.013949213277</v>
+        <v>295.741904975008</v>
       </c>
       <c r="S20">
-        <v>0.0001050961697697396</v>
+        <v>8.949554914812176E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001050961697697396</v>
+        <v>8.949554914812177E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H21">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N21">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O21">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P21">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q21">
-        <v>42.11338437667577</v>
+        <v>60.67440574063288</v>
       </c>
       <c r="R21">
-        <v>379.020459390082</v>
+        <v>546.069651665696</v>
       </c>
       <c r="S21">
-        <v>0.000227602420980298</v>
+        <v>0.0001652481522801948</v>
       </c>
       <c r="T21">
-        <v>0.0002276024209802979</v>
+        <v>0.0001652481522801948</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H22">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N22">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O22">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P22">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q22">
-        <v>40874.82787673122</v>
+        <v>71086.08385693266</v>
       </c>
       <c r="R22">
-        <v>367873.450890581</v>
+        <v>639774.754712394</v>
       </c>
       <c r="S22">
-        <v>0.2209086236975416</v>
+        <v>0.1936045992837206</v>
       </c>
       <c r="T22">
-        <v>0.2209086236975417</v>
+        <v>0.1936045992837206</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H23">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>31.359219</v>
       </c>
       <c r="O23">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P23">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q23">
-        <v>23971.7536912079</v>
+        <v>43501.19742275422</v>
       </c>
       <c r="R23">
-        <v>215745.7832208711</v>
+        <v>391510.776804788</v>
       </c>
       <c r="S23">
-        <v>0.1295557043447712</v>
+        <v>0.118476520838375</v>
       </c>
       <c r="T23">
-        <v>0.1295557043447712</v>
+        <v>0.118476520838375</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H24">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N24">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O24">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P24">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q24">
-        <v>9806.082691537582</v>
+        <v>34949.3772886857</v>
       </c>
       <c r="R24">
-        <v>88254.74422383824</v>
+        <v>314544.3955981713</v>
       </c>
       <c r="S24">
-        <v>0.05299712179301996</v>
+        <v>0.09518544021653366</v>
       </c>
       <c r="T24">
-        <v>0.05299712179301996</v>
+        <v>0.09518544021653366</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H25">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N25">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O25">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P25">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q25">
-        <v>6915.44756727383</v>
+        <v>18787.35193456117</v>
       </c>
       <c r="R25">
-        <v>62239.02810546446</v>
+        <v>169086.1674110506</v>
       </c>
       <c r="S25">
-        <v>0.03737464066995219</v>
+        <v>0.05116778904593181</v>
       </c>
       <c r="T25">
-        <v>0.03737464066995219</v>
+        <v>0.05116778904593182</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H26">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N26">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O26">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P26">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q26">
-        <v>14976.49830552655</v>
+        <v>34689.71611410167</v>
       </c>
       <c r="R26">
-        <v>134788.4847497389</v>
+        <v>312207.445026915</v>
       </c>
       <c r="S26">
-        <v>0.08094071095442644</v>
+        <v>0.09447824698084974</v>
       </c>
       <c r="T26">
-        <v>0.08094071095442643</v>
+        <v>0.09447824698084974</v>
       </c>
     </row>
   </sheetData>
